--- a/Speed_Tests.xlsx
+++ b/Speed_Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Speed-Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C45CB15-5306-4D43-A95F-5FADE12CBC48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB4029-392F-4808-BA44-3E46B5A95F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1815" windowWidth="22680" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date and time</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>http://www.speedtest.net/result/11160131486.png</t>
+  </si>
+  <si>
+    <t>28/03/2021 10:18:50</t>
+  </si>
+  <si>
+    <t>http://www.speedtest.net/result/11169233689.png</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,22 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
       <font>
@@ -212,22 +233,7 @@
         <name val="Arial"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,9 +269,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" strike="noStrike"/>
               <a:t>Download</a:t>
             </a:r>
             <a:r>
@@ -318,9 +322,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$A$2:$A$16</c:f>
+              <c:f>גיליון1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26/03/2021 10:27:47</c:v>
                 </c:pt>
@@ -365,16 +369,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26/03/2021 15:35:43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28/03/2021 10:18:50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$B$2:$B$16</c:f>
+              <c:f>גיליון1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>163.03363627081399</c:v>
                 </c:pt>
@@ -419,6 +426,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>183.353024722615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.22836211238021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,7 +436,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A0A-4B09-95A3-BD11A14BC128}"/>
+              <c16:uniqueId val="{00000000-4C0B-4C5E-A198-5D42E1E507B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -584,9 +594,7 @@
           <a:p>
             <a:pPr algn="ctr" rtl="0"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" strike="noStrike"/>
               <a:t>Upload</a:t>
             </a:r>
           </a:p>
@@ -635,9 +643,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$A$2:$A$16</c:f>
+              <c:f>גיליון1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26/03/2021 10:27:47</c:v>
                 </c:pt>
@@ -682,16 +690,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26/03/2021 15:35:43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28/03/2021 10:18:50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$C$2:$C$16</c:f>
+              <c:f>גיליון1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4.1657700204816734</c:v>
                 </c:pt>
@@ -736,6 +747,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.1068045845763681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9049183735341191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,7 +757,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF6B-4BDD-BCE9-9C2AC40E60E1}"/>
+              <c16:uniqueId val="{00000000-FA65-4170-ACB8-912125024B47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -900,9 +914,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" strike="noStrike"/>
               <a:t>Ping</a:t>
             </a:r>
             <a:r>
@@ -955,9 +967,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$A$2:$A$16</c:f>
+              <c:f>גיליון1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26/03/2021 10:27:47</c:v>
                 </c:pt>
@@ -1002,16 +1014,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26/03/2021 15:35:43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28/03/2021 10:18:50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$D$2:$D$16</c:f>
+              <c:f>גיליון1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>24.454000000000001</c:v>
                 </c:pt>
@@ -1056,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>21.734000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.614999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30D1-4E6A-8B44-A4521064C117}"/>
+              <c16:uniqueId val="{00000000-7553-467D-A2DA-2F0E76B0F0B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1273,9 +1291,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$A$2:$A$16</c:f>
+              <c:f>גיליון1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26/03/2021 10:27:47</c:v>
                 </c:pt>
@@ -1320,16 +1338,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26/03/2021 15:35:43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28/03/2021 10:18:50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$B$2:$B$16</c:f>
+              <c:f>גיליון1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>163.03363627081399</c:v>
                 </c:pt>
@@ -1374,6 +1395,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>183.353024722615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.22836211238021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1405,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAE2-4D6F-A867-4F541DD12FB4}"/>
+              <c16:uniqueId val="{00000000-3B71-42BB-ACE9-89ED861E1C6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,9 +1437,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$A$2:$A$16</c:f>
+              <c:f>גיליון1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26/03/2021 10:27:47</c:v>
                 </c:pt>
@@ -1460,16 +1484,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26/03/2021 15:35:43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28/03/2021 10:18:50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$C$2:$C$16</c:f>
+              <c:f>גיליון1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4.1657700204816734</c:v>
                 </c:pt>
@@ -1514,6 +1541,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.1068045845763681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9049183735341191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CAE2-4D6F-A867-4F541DD12FB4}"/>
+              <c16:uniqueId val="{00000001-3B71-42BB-ACE9-89ED861E1C6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1553,9 +1583,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>גיליון1!$A$2:$A$16</c:f>
+              <c:f>גיליון1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26/03/2021 10:27:47</c:v>
                 </c:pt>
@@ -1600,16 +1630,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26/03/2021 15:35:43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28/03/2021 10:18:50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>גיליון1!$D$2:$D$16</c:f>
+              <c:f>גיליון1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>24.454000000000001</c:v>
                 </c:pt>
@@ -1654,6 +1687,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>21.734000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.614999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,7 +1697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CAE2-4D6F-A867-4F541DD12FB4}"/>
+              <c16:uniqueId val="{00000002-3B71-42BB-ACE9-89ED861E1C6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1981,14 +2017,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה1" displayName="טבלה1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה1" displayName="טבלה1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date and time" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Download" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Upload" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ping" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Link" dataDxfId="2" dataCellStyle="היפר-קישור"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date and time" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Download" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Upload" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ping" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Link" dataDxfId="0" dataCellStyle="היפר-קישור"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2257,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -2272,7 +2308,7 @@
     <col min="5" max="5" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2426,7 @@
       <c r="D7" s="2">
         <v>22.248999999999999</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2407,7 +2443,7 @@
       <c r="D8" s="2">
         <v>25.469000000000001</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2424,7 +2460,7 @@
       <c r="D9" s="2">
         <v>28.222000000000001</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2441,7 +2477,7 @@
       <c r="D10" s="2">
         <v>24.068000000000001</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2458,7 +2494,7 @@
       <c r="D11" s="2">
         <v>22.893000000000001</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2475,7 +2511,7 @@
       <c r="D12" s="2">
         <v>24.414999999999999</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2492,7 +2528,7 @@
       <c r="D13" s="2">
         <v>25.754999999999999</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2509,7 +2545,7 @@
       <c r="D14" s="2">
         <v>24</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2526,7 +2562,7 @@
       <c r="D15" s="2">
         <v>20</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2543,8 +2579,25 @@
       <c r="D16" s="2">
         <v>21.734000000000002</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>131.22836211238021</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.9049183735341191</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27.614999999999998</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2552,14 +2605,14 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{B956072D-7BFE-409E-8703-98E61CE6854F}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{F61FDF4D-AB84-4F74-9471-1ED499E5FFE8}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>